--- a/spreadsheets/Lucian.xlsx
+++ b/spreadsheets/Lucian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBD1559-7BC0-4BEA-BBE6-695F652A67E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BF300-0654-46B4-A5A6-DB786988203E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Champion</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Jhin</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucian can easily out trade the jhin and all in Jhin. </t>
-  </si>
-  <si>
     <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Sivir</t>
   </si>
   <si>
-    <t>Very easy for Lucian to dodge Sivir q. Also sivir does not have any spells to specifically block from Lucian with her spell shield.</t>
-  </si>
-  <si>
     <t>https://www.twitch.tv/picklevayne/</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>description/bio</t>
   </si>
   <si>
-    <t>I am a 21 year old challenger adc in NA, and the rank 1 vayne in North America for season 9. I ended up with 74% winrate on Vayne with over 100 games (kda of 3.32). I am not an OTP and I also play Lucian, Kaisa, etc.</t>
-  </si>
-  <si>
     <t>extra message</t>
   </si>
   <si>
@@ -269,6 +260,18 @@
   </si>
   <si>
     <t>Lucian</t>
+  </si>
+  <si>
+    <t>I am a 21 year old challenger adc in NA, and the rank 1 Vayne in North America for season 9. I ended up with 74% winrate on Vayne with over 100 games. I am not an OTP and I also play Lucian, Kaisa, etc.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/EndzBoq.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucian can easily out trade the Jhin and all in Jhin. </t>
+  </si>
+  <si>
+    <t>Very easy for Lucian to dodge Sivir q. Also Sivir does not have any spells to specifically block from Lucian with her spell shield.</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,6 +364,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -653,7 +657,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -670,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -681,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -706,91 +710,93 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1778,10 +1784,11 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{E03C50DB-89E5-4272-B532-07809D0CBCF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1790,7 +1797,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1890,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
@@ -1898,155 +1905,155 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4">
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4">
         <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="4">
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4">
         <v>5</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
